--- a/Samsung.xlsx
+++ b/Samsung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaog\Downloads\Projeto2-master\Projeto2-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1937,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B298" sqref="B298"/>
+    <sheetView topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2192,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2824,7 +2824,7 @@
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>141</v>
       </c>
       <c r="B146" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>147</v>
       </c>
       <c r="B153" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3336,7 @@
         <v>167</v>
       </c>
       <c r="B174" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3408,7 +3408,7 @@
         <v>174</v>
       </c>
       <c r="B183" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3448,7 +3448,7 @@
         <v>179</v>
       </c>
       <c r="B188" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
         <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3584,7 +3584,7 @@
         <v>193</v>
       </c>
       <c r="B205" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3600,7 +3600,7 @@
         <v>195</v>
       </c>
       <c r="B207" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3632,7 +3632,7 @@
         <v>199</v>
       </c>
       <c r="B211" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3664,7 +3664,7 @@
         <v>203</v>
       </c>
       <c r="B215" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3776,7 +3776,7 @@
         <v>216</v>
       </c>
       <c r="B229" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3808,7 +3808,7 @@
         <v>219</v>
       </c>
       <c r="B233" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3832,7 +3832,7 @@
         <v>222</v>
       </c>
       <c r="B236" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3840,7 +3840,7 @@
         <v>223</v>
       </c>
       <c r="B237" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3936,7 +3936,7 @@
         <v>234</v>
       </c>
       <c r="B249" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,7 +3944,7 @@
         <v>201</v>
       </c>
       <c r="B250" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -4000,7 +4000,7 @@
         <v>241</v>
       </c>
       <c r="B257" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4080,7 +4080,7 @@
         <v>250</v>
       </c>
       <c r="B267" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -4120,7 +4120,7 @@
         <v>255</v>
       </c>
       <c r="B272" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -4232,7 +4232,7 @@
         <v>24</v>
       </c>
       <c r="B286" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
         <v>268</v>
       </c>
       <c r="B288" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4336,7 +4336,7 @@
         <v>279</v>
       </c>
       <c r="B299" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4368,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B203" sqref="B202:B203"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4447,7 +4447,7 @@
         <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
         <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4543,7 +4543,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>309</v>
       </c>
       <c r="B30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4703,7 +4703,7 @@
         <v>319</v>
       </c>
       <c r="B41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4823,7 +4823,7 @@
         <v>333</v>
       </c>
       <c r="B56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4911,7 +4911,7 @@
         <v>344</v>
       </c>
       <c r="B67" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -4919,7 +4919,7 @@
         <v>345</v>
       </c>
       <c r="B68" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5007,7 +5007,7 @@
         <v>356</v>
       </c>
       <c r="B79" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -5039,7 +5039,7 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -5055,7 +5055,7 @@
         <v>361</v>
       </c>
       <c r="B85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -5079,7 +5079,7 @@
         <v>364</v>
       </c>
       <c r="B88" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -5191,7 +5191,7 @@
         <v>377</v>
       </c>
       <c r="B102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -5295,7 +5295,7 @@
         <v>389</v>
       </c>
       <c r="B115" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -5415,7 +5415,7 @@
         <v>403</v>
       </c>
       <c r="B130" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -5431,7 +5431,7 @@
         <v>405</v>
       </c>
       <c r="B132" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -5439,7 +5439,7 @@
         <v>406</v>
       </c>
       <c r="B133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -5519,7 +5519,7 @@
         <v>416</v>
       </c>
       <c r="B143" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -5543,7 +5543,7 @@
         <v>419</v>
       </c>
       <c r="B146" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -5567,7 +5567,7 @@
         <v>422</v>
       </c>
       <c r="B149" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -5591,7 +5591,7 @@
         <v>425</v>
       </c>
       <c r="B152" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -5615,7 +5615,7 @@
         <v>428</v>
       </c>
       <c r="B155" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -5663,7 +5663,7 @@
         <v>433</v>
       </c>
       <c r="B161" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -5967,7 +5967,7 @@
         <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
